--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_dyn_pf_sc_results_bus.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3282,58 +3282,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
-        <v>5.248639108736849</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970814</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
-        <v>333.3333522539259</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394474186058</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098740156</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
-        <v>-4.877431776118259E-09</v>
+        <v>59.99999999685334</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,58 +3341,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7.486645168178444</v>
       </c>
       <c r="C3">
-        <v>7.505981655641896</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.605398585611783</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>86.44833206350071</v>
       </c>
       <c r="F3">
-        <v>86.67161058834482</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>87.81957841394726</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.13297100655702E-06</v>
+        <v>2.132971010565857E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737017247</v>
+        <v>0.4683053737015321</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064016</v>
+        <v>0.1077319053178419</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694642955</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131826</v>
+        <v>0.1077319054132432</v>
       </c>
       <c r="M3">
-        <v>2.308438694642893</v>
+        <v>2.308438694642837</v>
       </c>
       <c r="N3">
-        <v>0.2748032888721914</v>
+        <v>0.5605924249019383</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023849217</v>
       </c>
       <c r="P3">
-        <v>0.2748032888886502</v>
+        <v>0.5532644226333374</v>
       </c>
       <c r="Q3">
-        <v>1.901269826158502</v>
+        <v>81.01279302457171</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>-178.0987301749898</v>
+        <v>99.10724870474976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,58 +3400,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.149820960866112</v>
       </c>
       <c r="C4">
-        <v>5.029680722715546</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.964875042908851</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>47.91800497689603</v>
       </c>
       <c r="F4">
-        <v>58.07775038395384</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>34.23542808274057</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901347</v>
+        <v>3.716460666901372</v>
       </c>
       <c r="I4">
-        <v>1.922938855559326</v>
+        <v>1.922938855559141</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570956</v>
+        <v>0.6277319162686393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438697960041</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638727</v>
+        <v>0.627731916364042</v>
       </c>
       <c r="M4">
-        <v>2.898438697960022</v>
+        <v>2.898438697959969</v>
       </c>
       <c r="N4">
-        <v>0.7585622007332208</v>
+        <v>0.5032022935223107</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023851071</v>
       </c>
       <c r="P4">
-        <v>0.7585622007379993</v>
+        <v>0.8536436911147183</v>
       </c>
       <c r="Q4">
-        <v>-12.56153100582878</v>
+        <v>41.56601328844689</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>167.4384689941965</v>
+        <v>116.1703166090955</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,58 +3459,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.050317367585603</v>
       </c>
       <c r="C5">
-        <v>4.055887790844918</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.620563445776253</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>35.22203106578677</v>
       </c>
       <c r="F5">
-        <v>46.8333581569446</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.25966021694827</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850114</v>
+        <v>6.193141972850158</v>
       </c>
       <c r="I5">
-        <v>2.890812310053079</v>
+        <v>2.890812310052897</v>
       </c>
       <c r="J5">
-        <v>0.9743985902535803</v>
+        <v>0.9743985901651999</v>
       </c>
       <c r="K5">
-        <v>3.291772033553181</v>
+        <v>3.291772033564907</v>
       </c>
       <c r="L5">
-        <v>0.974398590260356</v>
+        <v>0.9743985902606025</v>
       </c>
       <c r="M5">
-        <v>3.291772033564919</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N5">
-        <v>0.8062769315687365</v>
+        <v>0.5815372866335913</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023849339</v>
       </c>
       <c r="P5">
-        <v>0.8062769315723296</v>
+        <v>0.9000545224601511</v>
       </c>
       <c r="Q5">
-        <v>-9.158832618363597</v>
+        <v>35.23345800438612</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>170.8411673816617</v>
+        <v>121.8536036145803</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3518,58 +3518,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.050317367585604</v>
       </c>
       <c r="C6">
-        <v>4.055887790844917</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.620563445776254</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>35.22203106578679</v>
       </c>
       <c r="F6">
-        <v>46.83335815694459</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.25966021694827</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.193141972850111</v>
+        <v>6.193141972850157</v>
       </c>
       <c r="I6">
-        <v>2.89081231005308</v>
+        <v>2.890812310052895</v>
       </c>
       <c r="J6">
-        <v>0.9743985902535794</v>
+        <v>0.9743985901651996</v>
       </c>
       <c r="K6">
-        <v>3.291772033553181</v>
+        <v>3.291772033564906</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603558</v>
+        <v>0.9743985902606014</v>
       </c>
       <c r="M6">
-        <v>3.291772033564917</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N6">
-        <v>0.8062769315687361</v>
+        <v>0.5815372866335909</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023849339</v>
       </c>
       <c r="P6">
-        <v>0.8062769315723293</v>
+        <v>0.9000545224601514</v>
       </c>
       <c r="Q6">
-        <v>-9.158832618363595</v>
+        <v>35.2334580043861</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>170.8411673816617</v>
+        <v>121.8536036145802</v>
       </c>
     </row>
   </sheetData>
@@ -3649,58 +3649,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
-        <v>5.248639108736849</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970814</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
-        <v>333.3333522539259</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394474186058</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098740156</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
-        <v>-4.877431776118259E-09</v>
+        <v>59.99999999685334</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,58 +3708,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7.486645168178444</v>
       </c>
       <c r="C3">
-        <v>7.505981655641896</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.605398585611783</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>86.44833206350071</v>
       </c>
       <c r="F3">
-        <v>86.67161058834482</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>87.81957841394726</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.13297100655702E-06</v>
+        <v>2.132971010565857E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737017247</v>
+        <v>0.4683053737015321</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064016</v>
+        <v>0.1077319053178419</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694642955</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131826</v>
+        <v>0.1077319054132432</v>
       </c>
       <c r="M3">
-        <v>2.308438694642893</v>
+        <v>2.308438694642837</v>
       </c>
       <c r="N3">
-        <v>0.2748032888721914</v>
+        <v>0.5605924249019383</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023849217</v>
       </c>
       <c r="P3">
-        <v>0.2748032888886502</v>
+        <v>0.5532644226333374</v>
       </c>
       <c r="Q3">
-        <v>1.901269826158502</v>
+        <v>81.01279302457171</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>-178.0987301749898</v>
+        <v>99.10724870474976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,58 +3767,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.149820960866112</v>
       </c>
       <c r="C4">
-        <v>5.029680722715546</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.964875042908851</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>47.91800497689603</v>
       </c>
       <c r="F4">
-        <v>58.07775038395384</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>34.23542808274057</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901347</v>
+        <v>3.716460666901372</v>
       </c>
       <c r="I4">
-        <v>1.922938855559326</v>
+        <v>1.922938855559141</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570956</v>
+        <v>0.6277319162686393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438697960041</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638727</v>
+        <v>0.627731916364042</v>
       </c>
       <c r="M4">
-        <v>2.898438697960022</v>
+        <v>2.898438697959969</v>
       </c>
       <c r="N4">
-        <v>0.7585622007332208</v>
+        <v>0.5032022935223107</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023851071</v>
       </c>
       <c r="P4">
-        <v>0.7585622007379993</v>
+        <v>0.8536436911147183</v>
       </c>
       <c r="Q4">
-        <v>-12.56153100582878</v>
+        <v>41.56601328844689</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>167.4384689941965</v>
+        <v>116.1703166090955</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,58 +3826,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.050317367585603</v>
       </c>
       <c r="C5">
-        <v>4.055887790844918</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.620563445776253</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>35.22203106578677</v>
       </c>
       <c r="F5">
-        <v>46.8333581569446</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.25966021694827</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850114</v>
+        <v>6.193141972850158</v>
       </c>
       <c r="I5">
-        <v>2.890812310053079</v>
+        <v>2.890812310052897</v>
       </c>
       <c r="J5">
-        <v>0.9743985902535803</v>
+        <v>0.9743985901651999</v>
       </c>
       <c r="K5">
-        <v>3.291772033553181</v>
+        <v>3.291772033564907</v>
       </c>
       <c r="L5">
-        <v>0.974398590260356</v>
+        <v>0.9743985902606025</v>
       </c>
       <c r="M5">
-        <v>3.291772033564919</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N5">
-        <v>0.8062769315687365</v>
+        <v>0.5815372866335913</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023849339</v>
       </c>
       <c r="P5">
-        <v>0.8062769315723296</v>
+        <v>0.9000545224601511</v>
       </c>
       <c r="Q5">
-        <v>-9.158832618363597</v>
+        <v>35.23345800438612</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>170.8411673816617</v>
+        <v>121.8536036145803</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3885,58 +3885,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.050317367585604</v>
       </c>
       <c r="C6">
-        <v>4.055887790844917</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.620563445776254</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>35.22203106578679</v>
       </c>
       <c r="F6">
-        <v>46.83335815694459</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.25966021694827</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.193141972850111</v>
+        <v>6.193141972850157</v>
       </c>
       <c r="I6">
-        <v>2.89081231005308</v>
+        <v>2.890812310052895</v>
       </c>
       <c r="J6">
-        <v>0.9743985902535794</v>
+        <v>0.9743985901651996</v>
       </c>
       <c r="K6">
-        <v>3.291772033553181</v>
+        <v>3.291772033564906</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603558</v>
+        <v>0.9743985902606014</v>
       </c>
       <c r="M6">
-        <v>3.291772033564917</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N6">
-        <v>0.8062769315687361</v>
+        <v>0.5815372866335909</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023849339</v>
       </c>
       <c r="P6">
-        <v>0.8062769315723293</v>
+        <v>0.9000545224601514</v>
       </c>
       <c r="Q6">
-        <v>-9.158832618363595</v>
+        <v>35.2334580043861</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>170.8411673816617</v>
+        <v>121.8536036145802</v>
       </c>
     </row>
   </sheetData>
@@ -4016,58 +4016,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593721</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231205</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888675</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394474186058</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278028</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898905</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011797</v>
+        <v>0.8378427578966811</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504784</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,58 +4075,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.512244848903233</v>
       </c>
       <c r="C3">
-        <v>1.526666615553254</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.416706836785395</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.46189941189813</v>
       </c>
       <c r="F3">
-        <v>17.62842762904972</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.35872147161662</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.13297100655702E-06</v>
+        <v>2.132971010565857E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737017247</v>
+        <v>0.4683053737015321</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064016</v>
+        <v>0.1077319053178419</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694642955</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131826</v>
+        <v>0.1077319054132432</v>
       </c>
       <c r="M3">
-        <v>2.308438694642893</v>
+        <v>2.308438694642837</v>
       </c>
       <c r="N3">
-        <v>1.024998895708736</v>
+        <v>0.9258965107568061</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809893</v>
+        <v>1.100000023845418</v>
       </c>
       <c r="P3">
-        <v>0.9376302810217509</v>
+        <v>1.036762419153047</v>
       </c>
       <c r="Q3">
-        <v>21.37651986108362</v>
+        <v>29.15655502162155</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>148.8263147219714</v>
+        <v>141.2520184563645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,58 +4134,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.25966968104685</v>
       </c>
       <c r="C4">
-        <v>1.383090658670758</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.175859552050429</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.54541258884818</v>
       </c>
       <c r="F4">
-        <v>15.97055528194438</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.57765657811016</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901347</v>
+        <v>3.716460666901372</v>
       </c>
       <c r="I4">
-        <v>1.922938855559326</v>
+        <v>1.922938855559141</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570956</v>
+        <v>0.6277319162686393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438697960041</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638727</v>
+        <v>0.627731916364042</v>
       </c>
       <c r="M4">
-        <v>2.898438697960022</v>
+        <v>2.898438697959969</v>
       </c>
       <c r="N4">
-        <v>1.006515015002835</v>
+        <v>0.9132419036264661</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380074</v>
+        <v>1.100000023844969</v>
       </c>
       <c r="P4">
-        <v>0.9270360094836517</v>
+        <v>1.016780042240087</v>
       </c>
       <c r="Q4">
-        <v>20.0477067217329</v>
+        <v>30.18467731504754</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014049</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.2487257508933</v>
+        <v>140.9309510165867</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,58 +4193,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.131286872924681</v>
       </c>
       <c r="C5">
-        <v>1.298330997832553</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.075138985077874</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13.06297561227509</v>
       </c>
       <c r="F5">
-        <v>14.9918350219172</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.41463564901943</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850114</v>
+        <v>6.193141972850158</v>
       </c>
       <c r="I5">
-        <v>2.890812310053079</v>
+        <v>2.890812310052897</v>
       </c>
       <c r="J5">
-        <v>0.9743985902535803</v>
+        <v>0.9743985901651999</v>
       </c>
       <c r="K5">
-        <v>3.291772033553181</v>
+        <v>3.291772033564907</v>
       </c>
       <c r="L5">
-        <v>0.974398590260356</v>
+        <v>0.9743985902606025</v>
       </c>
       <c r="M5">
-        <v>3.291772033564919</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N5">
-        <v>0.9954818448650828</v>
+        <v>0.9061601430336053</v>
       </c>
       <c r="O5">
-        <v>0.7610792363894661</v>
+        <v>1.100000023844711</v>
       </c>
       <c r="P5">
-        <v>0.9212706670340197</v>
+        <v>1.007203956173985</v>
       </c>
       <c r="Q5">
-        <v>19.20716037741579</v>
+        <v>30.6623176874836</v>
       </c>
       <c r="R5">
-        <v>-99.22644568572217</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S5">
-        <v>152.6164013912024</v>
+        <v>140.7047633326422</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4252,58 +4252,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.131286872924681</v>
       </c>
       <c r="C6">
-        <v>1.298330997832553</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.075138985077874</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>13.0629756122751</v>
       </c>
       <c r="F6">
-        <v>14.9918350219172</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.41463564901943</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.193141972850111</v>
+        <v>6.193141972850157</v>
       </c>
       <c r="I6">
-        <v>2.89081231005308</v>
+        <v>2.890812310052895</v>
       </c>
       <c r="J6">
-        <v>0.9743985902535794</v>
+        <v>0.9743985901651996</v>
       </c>
       <c r="K6">
-        <v>3.291772033553181</v>
+        <v>3.291772033564906</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603558</v>
+        <v>0.9743985902606014</v>
       </c>
       <c r="M6">
-        <v>3.291772033564917</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N6">
-        <v>0.9954818448650827</v>
+        <v>0.9061601430336053</v>
       </c>
       <c r="O6">
-        <v>0.7610792363894662</v>
+        <v>1.100000023844711</v>
       </c>
       <c r="P6">
-        <v>0.9212706670340196</v>
+        <v>1.007203956173985</v>
       </c>
       <c r="Q6">
-        <v>19.2071603774158</v>
+        <v>30.66231768748359</v>
       </c>
       <c r="R6">
-        <v>-99.22644568572217</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S6">
-        <v>152.6164013912024</v>
+        <v>140.7047633326422</v>
       </c>
     </row>
   </sheetData>
@@ -4534,58 +4534,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593721</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231205</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888675</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419442</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.324394474186058</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104238</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278028</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898905</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011797</v>
+        <v>0.8378427578966811</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504784</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,58 +4593,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.512244848903233</v>
       </c>
       <c r="C3">
-        <v>1.526666615553254</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.416706836785395</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.46189941189813</v>
       </c>
       <c r="F3">
-        <v>17.62842762904972</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.35872147161662</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.13297100655702E-06</v>
+        <v>2.132971010565857E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737017247</v>
+        <v>0.4683053737015321</v>
       </c>
       <c r="J3">
-        <v>0.1077319054064016</v>
+        <v>0.1077319053178419</v>
       </c>
       <c r="K3">
-        <v>2.308438694631239</v>
+        <v>2.308438694642955</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131826</v>
+        <v>0.1077319054132432</v>
       </c>
       <c r="M3">
-        <v>2.308438694642893</v>
+        <v>2.308438694642837</v>
       </c>
       <c r="N3">
-        <v>1.024998895708736</v>
+        <v>0.9258965107568061</v>
       </c>
       <c r="O3">
-        <v>0.8723446855809893</v>
+        <v>1.100000023845418</v>
       </c>
       <c r="P3">
-        <v>0.9376302810217509</v>
+        <v>1.036762419153047</v>
       </c>
       <c r="Q3">
-        <v>21.37651986108362</v>
+        <v>29.15655502162155</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396028</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>148.8263147219714</v>
+        <v>141.2520184563645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,58 +4652,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.25966968104685</v>
       </c>
       <c r="C4">
-        <v>1.383090658670758</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.175859552050429</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.54541258884818</v>
       </c>
       <c r="F4">
-        <v>15.97055528194438</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.57765657811016</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.716460666901347</v>
+        <v>3.716460666901372</v>
       </c>
       <c r="I4">
-        <v>1.922938855559326</v>
+        <v>1.922938855559141</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570956</v>
+        <v>0.6277319162686393</v>
       </c>
       <c r="K4">
-        <v>2.898438697948319</v>
+        <v>2.898438697960041</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638727</v>
+        <v>0.627731916364042</v>
       </c>
       <c r="M4">
-        <v>2.898438697960022</v>
+        <v>2.898438697959969</v>
       </c>
       <c r="N4">
-        <v>1.006515015002835</v>
+        <v>0.9132419036264661</v>
       </c>
       <c r="O4">
-        <v>0.8020156209380074</v>
+        <v>1.100000023844969</v>
       </c>
       <c r="P4">
-        <v>0.9270360094836517</v>
+        <v>1.016780042240087</v>
       </c>
       <c r="Q4">
-        <v>20.0477067217329</v>
+        <v>30.18467731504754</v>
       </c>
       <c r="R4">
-        <v>-99.52967390014049</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.2487257508933</v>
+        <v>140.9309510165867</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,58 +4711,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.131286872924681</v>
       </c>
       <c r="C5">
-        <v>1.298330997832553</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.075138985077874</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13.06297561227509</v>
       </c>
       <c r="F5">
-        <v>14.9918350219172</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.41463564901943</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.193141972850114</v>
+        <v>6.193141972850158</v>
       </c>
       <c r="I5">
-        <v>2.890812310053079</v>
+        <v>2.890812310052897</v>
       </c>
       <c r="J5">
-        <v>0.9743985902535803</v>
+        <v>0.9743985901651999</v>
       </c>
       <c r="K5">
-        <v>3.291772033553181</v>
+        <v>3.291772033564907</v>
       </c>
       <c r="L5">
-        <v>0.974398590260356</v>
+        <v>0.9743985902606025</v>
       </c>
       <c r="M5">
-        <v>3.291772033564919</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N5">
-        <v>0.9954818448650828</v>
+        <v>0.9061601430336053</v>
       </c>
       <c r="O5">
-        <v>0.7610792363894661</v>
+        <v>1.100000023844711</v>
       </c>
       <c r="P5">
-        <v>0.9212706670340197</v>
+        <v>1.007203956173985</v>
       </c>
       <c r="Q5">
-        <v>19.20716037741579</v>
+        <v>30.6623176874836</v>
       </c>
       <c r="R5">
-        <v>-99.22644568572217</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S5">
-        <v>152.6164013912024</v>
+        <v>140.7047633326422</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4770,58 +4770,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.131286872924681</v>
       </c>
       <c r="C6">
-        <v>1.298330997832553</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.075138985077874</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>13.0629756122751</v>
       </c>
       <c r="F6">
-        <v>14.9918350219172</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.41463564901943</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.193141972850111</v>
+        <v>6.193141972850157</v>
       </c>
       <c r="I6">
-        <v>2.89081231005308</v>
+        <v>2.890812310052895</v>
       </c>
       <c r="J6">
-        <v>0.9743985902535794</v>
+        <v>0.9743985901651996</v>
       </c>
       <c r="K6">
-        <v>3.291772033553181</v>
+        <v>3.291772033564906</v>
       </c>
       <c r="L6">
-        <v>0.9743985902603558</v>
+        <v>0.9743985902606014</v>
       </c>
       <c r="M6">
-        <v>3.291772033564917</v>
+        <v>3.291772033564867</v>
       </c>
       <c r="N6">
-        <v>0.9954818448650827</v>
+        <v>0.9061601430336053</v>
       </c>
       <c r="O6">
-        <v>0.7610792363894662</v>
+        <v>1.100000023844711</v>
       </c>
       <c r="P6">
-        <v>0.9212706670340196</v>
+        <v>1.007203956173985</v>
       </c>
       <c r="Q6">
-        <v>19.2071603774158</v>
+        <v>30.66231768748359</v>
       </c>
       <c r="R6">
-        <v>-99.22644568572217</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S6">
-        <v>152.6164013912024</v>
+        <v>140.7047633326422</v>
       </c>
     </row>
   </sheetData>
@@ -4901,58 +4901,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.19891119579262</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412807</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113623</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872409</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976224</v>
+        <v>1.504993724976287</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246248</v>
+        <v>1.504993722648797</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5773502691952338</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743763</v>
+        <v>0.5773502692541784</v>
       </c>
       <c r="Q2">
-        <v>-5.812917395695511E-09</v>
+        <v>59.99999999647618</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955745</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,58 +4960,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.513675746684334</v>
       </c>
       <c r="C3">
-        <v>6.541069236575427</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.628303148591585</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>75.21344891524274</v>
       </c>
       <c r="F3">
-        <v>75.52976169049606</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.53705214219592</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.30897941845114E-06</v>
+        <v>4.308979423411365E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243147688</v>
+        <v>0.4803962243145665</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595127202</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710816</v>
+        <v>0.1153518594711489</v>
       </c>
       <c r="M3">
-        <v>2.41639754067575</v>
+        <v>2.416397540675693</v>
       </c>
       <c r="N3">
-        <v>0.2462359706961716</v>
+        <v>0.5094238347718282</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006984</v>
       </c>
       <c r="P3">
-        <v>0.2462359706898987</v>
+        <v>0.5027193988243107</v>
       </c>
       <c r="Q3">
-        <v>1.955875720579085</v>
+        <v>81.17491668662113</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S3">
-        <v>-178.0441242809309</v>
+        <v>98.94373642299013</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,58 +5019,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.82891633278569</v>
       </c>
       <c r="C4">
-        <v>3.925616777675339</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.484202367606449</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>32.66551212497494</v>
       </c>
       <c r="F4">
-        <v>45.32911806652336</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>28.68509811318178</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419211</v>
+        <v>7.135173428419265</v>
       </c>
       <c r="I4">
-        <v>1.879505018721096</v>
+        <v>1.87950501872089</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880274944</v>
       </c>
       <c r="K4">
-        <v>3.006397543768159</v>
+        <v>3.006397543745556</v>
       </c>
       <c r="L4">
-        <v>1.113751880233075</v>
+        <v>1.113751880233371</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543745531</v>
       </c>
       <c r="N4">
-        <v>0.76044630632282</v>
+        <v>0.5465415455385793</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9999999999994561</v>
       </c>
       <c r="P4">
-        <v>0.7604463063235444</v>
+        <v>0.8636625940136907</v>
       </c>
       <c r="Q4">
-        <v>-8.980984779835504</v>
+        <v>30.37919592902007</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>171.0190152197314</v>
+        <v>123.0882889740625</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,58 +5078,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.904207346003257</v>
       </c>
       <c r="C5">
-        <v>3.077249408701101</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.220454844409832</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.98789247615687</v>
       </c>
       <c r="F5">
-        <v>35.53301548954395</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.63960404286851</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800023</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I5">
-        <v>2.806851597694809</v>
+        <v>2.806851597694609</v>
       </c>
       <c r="J5">
-        <v>1.779351894005445</v>
+        <v>1.779351894034437</v>
       </c>
       <c r="K5">
-        <v>3.399730879266414</v>
+        <v>3.399730879243813</v>
       </c>
       <c r="L5">
-        <v>1.779351893992417</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M5">
-        <v>3.399730879243908</v>
+        <v>3.399730879243857</v>
       </c>
       <c r="N5">
-        <v>0.7807569542035455</v>
+        <v>0.634678641136055</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9999999999991909</v>
       </c>
       <c r="P5">
-        <v>0.7807569542043066</v>
+        <v>0.8795785593514656</v>
       </c>
       <c r="Q5">
-        <v>-6.142526072165142</v>
+        <v>29.7127042835145</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999608</v>
       </c>
       <c r="S5">
-        <v>173.8574739273857</v>
+        <v>128.8070926851616</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5137,58 +5137,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.904207346003257</v>
       </c>
       <c r="C6">
-        <v>3.0772494087011</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.220454844409833</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.98789247615687</v>
       </c>
       <c r="F6">
-        <v>35.53301548954394</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25.63960404286851</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.88996667800024</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I6">
-        <v>2.806851597694816</v>
+        <v>2.806851597694606</v>
       </c>
       <c r="J6">
-        <v>1.779351894005444</v>
+        <v>1.779351894034438</v>
       </c>
       <c r="K6">
-        <v>3.399730879266414</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L6">
-        <v>1.779351893992414</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M6">
-        <v>3.39973087924391</v>
+        <v>3.399730879243859</v>
       </c>
       <c r="N6">
-        <v>0.7807569542035452</v>
+        <v>0.6346786411360548</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9999999999991909</v>
       </c>
       <c r="P6">
-        <v>0.7807569542043064</v>
+        <v>0.8795785593514657</v>
       </c>
       <c r="Q6">
-        <v>-6.142526072165123</v>
+        <v>29.7127042835145</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999608</v>
       </c>
       <c r="S6">
-        <v>173.8574739273857</v>
+        <v>128.8070926851616</v>
       </c>
     </row>
   </sheetData>
@@ -5268,58 +5268,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.19891119579262</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412807</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113623</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872409</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976224</v>
+        <v>1.504993724976287</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246248</v>
+        <v>1.504993722648797</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5773502691952338</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743763</v>
+        <v>0.5773502692541784</v>
       </c>
       <c r="Q2">
-        <v>-5.812917395695511E-09</v>
+        <v>59.99999999647618</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955745</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,58 +5327,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.513675746684334</v>
       </c>
       <c r="C3">
-        <v>6.541069236575427</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.628303148591585</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>75.21344891524274</v>
       </c>
       <c r="F3">
-        <v>75.52976169049606</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.53705214219592</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.30897941845114E-06</v>
+        <v>4.308979423411365E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243147688</v>
+        <v>0.4803962243145665</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595127202</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710816</v>
+        <v>0.1153518594711489</v>
       </c>
       <c r="M3">
-        <v>2.41639754067575</v>
+        <v>2.416397540675693</v>
       </c>
       <c r="N3">
-        <v>0.2462359706961716</v>
+        <v>0.5094238347718282</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006984</v>
       </c>
       <c r="P3">
-        <v>0.2462359706898987</v>
+        <v>0.5027193988243107</v>
       </c>
       <c r="Q3">
-        <v>1.955875720579085</v>
+        <v>81.17491668662113</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S3">
-        <v>-178.0441242809309</v>
+        <v>98.94373642299013</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,58 +5386,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.82891633278569</v>
       </c>
       <c r="C4">
-        <v>3.925616777675339</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.484202367606449</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>32.66551212497494</v>
       </c>
       <c r="F4">
-        <v>45.32911806652336</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>28.68509811318178</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419211</v>
+        <v>7.135173428419265</v>
       </c>
       <c r="I4">
-        <v>1.879505018721096</v>
+        <v>1.87950501872089</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880274944</v>
       </c>
       <c r="K4">
-        <v>3.006397543768159</v>
+        <v>3.006397543745556</v>
       </c>
       <c r="L4">
-        <v>1.113751880233075</v>
+        <v>1.113751880233371</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543745531</v>
       </c>
       <c r="N4">
-        <v>0.76044630632282</v>
+        <v>0.5465415455385793</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9999999999994561</v>
       </c>
       <c r="P4">
-        <v>0.7604463063235444</v>
+        <v>0.8636625940136907</v>
       </c>
       <c r="Q4">
-        <v>-8.980984779835504</v>
+        <v>30.37919592902007</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>171.0190152197314</v>
+        <v>123.0882889740625</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,58 +5445,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.904207346003257</v>
       </c>
       <c r="C5">
-        <v>3.077249408701101</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.220454844409832</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.98789247615687</v>
       </c>
       <c r="F5">
-        <v>35.53301548954395</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25.63960404286851</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800023</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I5">
-        <v>2.806851597694809</v>
+        <v>2.806851597694609</v>
       </c>
       <c r="J5">
-        <v>1.779351894005445</v>
+        <v>1.779351894034437</v>
       </c>
       <c r="K5">
-        <v>3.399730879266414</v>
+        <v>3.399730879243813</v>
       </c>
       <c r="L5">
-        <v>1.779351893992417</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M5">
-        <v>3.399730879243908</v>
+        <v>3.399730879243857</v>
       </c>
       <c r="N5">
-        <v>0.7807569542035455</v>
+        <v>0.634678641136055</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9999999999991909</v>
       </c>
       <c r="P5">
-        <v>0.7807569542043066</v>
+        <v>0.8795785593514656</v>
       </c>
       <c r="Q5">
-        <v>-6.142526072165142</v>
+        <v>29.7127042835145</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999608</v>
       </c>
       <c r="S5">
-        <v>173.8574739273857</v>
+        <v>128.8070926851616</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5504,58 +5504,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.904207346003257</v>
       </c>
       <c r="C6">
-        <v>3.0772494087011</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.220454844409833</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.98789247615687</v>
       </c>
       <c r="F6">
-        <v>35.53301548954394</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25.63960404286851</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.88996667800024</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I6">
-        <v>2.806851597694816</v>
+        <v>2.806851597694606</v>
       </c>
       <c r="J6">
-        <v>1.779351894005444</v>
+        <v>1.779351894034438</v>
       </c>
       <c r="K6">
-        <v>3.399730879266414</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L6">
-        <v>1.779351893992414</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M6">
-        <v>3.39973087924391</v>
+        <v>3.399730879243859</v>
       </c>
       <c r="N6">
-        <v>0.7807569542035452</v>
+        <v>0.6346786411360548</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9999999999991909</v>
       </c>
       <c r="P6">
-        <v>0.7807569542043064</v>
+        <v>0.8795785593514657</v>
       </c>
       <c r="Q6">
-        <v>-6.142526072165123</v>
+        <v>29.7127042835145</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999608</v>
       </c>
       <c r="S6">
-        <v>173.8574739273857</v>
+        <v>128.8070926851616</v>
       </c>
     </row>
   </sheetData>
@@ -5635,58 +5635,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756733</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876776</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976224</v>
+        <v>1.504993724976287</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246248</v>
+        <v>1.504993722648797</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192562</v>
+        <v>0.6184267549947471</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384414</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802276</v>
+        <v>41.77463363119255</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767961</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,58 +5694,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.364411597794575</v>
       </c>
       <c r="C3">
-        <v>1.377764722514245</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.274927760211</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.75486806544291</v>
       </c>
       <c r="F3">
-        <v>15.90905666847139</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.72159771110295</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.30897941845114E-06</v>
+        <v>4.308979423411365E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243147688</v>
+        <v>0.4803962243145665</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595127202</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710816</v>
+        <v>0.1153518594711489</v>
       </c>
       <c r="M3">
-        <v>2.41639754067575</v>
+        <v>2.416397540675693</v>
       </c>
       <c r="N3">
-        <v>0.9282298830082804</v>
+        <v>0.8354771699161131</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142147</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P3">
-        <v>0.8469722590962648</v>
+        <v>0.9397939806721677</v>
       </c>
       <c r="Q3">
-        <v>21.04638680025845</v>
+        <v>29.18500206515242</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>148.8124200026778</v>
+        <v>140.9086422845006</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,58 +5753,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.036210343459111</v>
       </c>
       <c r="C4">
-        <v>1.21221060356638</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.964823543547059</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.96512641466385</v>
       </c>
       <c r="F4">
-        <v>13.99740236567136</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.14082265174766</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419211</v>
+        <v>7.135173428419265</v>
       </c>
       <c r="I4">
-        <v>1.879505018721096</v>
+        <v>1.87950501872089</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880274944</v>
       </c>
       <c r="K4">
-        <v>3.006397543768159</v>
+        <v>3.006397543745556</v>
       </c>
       <c r="L4">
-        <v>1.113751880233075</v>
+        <v>1.113751880233371</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543745531</v>
       </c>
       <c r="N4">
-        <v>0.9045277646409607</v>
+        <v>0.8342731432240587</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933663</v>
+        <v>0.9999999999998923</v>
       </c>
       <c r="P4">
-        <v>0.8520668705855894</v>
+        <v>0.9187000811234594</v>
       </c>
       <c r="Q4">
-        <v>19.79019327968254</v>
+        <v>30.70548526244763</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S4">
-        <v>152.8016426976381</v>
+        <v>141.3328683155829</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,58 +5812,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8848656145602846</v>
       </c>
       <c r="C5">
-        <v>1.109659918351936</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8690420588171912</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10.21754801526048</v>
       </c>
       <c r="F5">
-        <v>12.81324905138857</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.03483333190424</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800023</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I5">
-        <v>2.806851597694809</v>
+        <v>2.806851597694609</v>
       </c>
       <c r="J5">
-        <v>1.779351894005445</v>
+        <v>1.779351894034437</v>
       </c>
       <c r="K5">
-        <v>3.399730879266414</v>
+        <v>3.399730879243813</v>
       </c>
       <c r="L5">
-        <v>1.779351893992417</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M5">
-        <v>3.399730879243908</v>
+        <v>3.399730879243857</v>
       </c>
       <c r="N5">
-        <v>0.8889856082353579</v>
+        <v>0.8315702581286986</v>
       </c>
       <c r="O5">
-        <v>0.6550793552707754</v>
+        <v>0.9999999999998</v>
       </c>
       <c r="P5">
-        <v>0.8523614955384028</v>
+        <v>0.9091343131749756</v>
       </c>
       <c r="Q5">
-        <v>18.94338221820284</v>
+        <v>31.33833484413732</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652829</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S5">
-        <v>154.8099639872519</v>
+        <v>141.3743755610145</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5871,58 +5871,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8848656145602842</v>
       </c>
       <c r="C6">
-        <v>1.109659918351936</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8690420588171913</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10.21754801526047</v>
       </c>
       <c r="F6">
-        <v>12.81324905138857</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.03483333190424</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.88996667800024</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I6">
-        <v>2.806851597694816</v>
+        <v>2.806851597694606</v>
       </c>
       <c r="J6">
-        <v>1.779351894005444</v>
+        <v>1.779351894034438</v>
       </c>
       <c r="K6">
-        <v>3.399730879266414</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L6">
-        <v>1.779351893992414</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M6">
-        <v>3.39973087924391</v>
+        <v>3.399730879243859</v>
       </c>
       <c r="N6">
-        <v>0.8889856082353579</v>
+        <v>0.8315702581286986</v>
       </c>
       <c r="O6">
-        <v>0.6550793552707754</v>
+        <v>0.9999999999997999</v>
       </c>
       <c r="P6">
-        <v>0.8523614955384026</v>
+        <v>0.9091343131749756</v>
       </c>
       <c r="Q6">
-        <v>18.94338221820284</v>
+        <v>31.33833484413731</v>
       </c>
       <c r="R6">
-        <v>-96.0932934565283</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S6">
-        <v>154.8099639872519</v>
+        <v>141.3743755610145</v>
       </c>
     </row>
   </sheetData>
@@ -6002,58 +6002,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756733</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876776</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976224</v>
+        <v>1.504993724976287</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246248</v>
+        <v>1.504993722648797</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695428</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192562</v>
+        <v>0.6184267549947471</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384414</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802276</v>
+        <v>41.77463363119255</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767961</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,58 +6061,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.364411597794575</v>
       </c>
       <c r="C3">
-        <v>1.377764722514245</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.274927760211</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.75486806544291</v>
       </c>
       <c r="F3">
-        <v>15.90905666847139</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.72159771110295</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.30897941845114E-06</v>
+        <v>4.308979423411365E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243147688</v>
+        <v>0.4803962243145665</v>
       </c>
       <c r="J3">
-        <v>0.115351859484112</v>
+        <v>0.1153518595127202</v>
       </c>
       <c r="K3">
-        <v>2.41639754069842</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710816</v>
+        <v>0.1153518594711489</v>
       </c>
       <c r="M3">
-        <v>2.41639754067575</v>
+        <v>2.416397540675693</v>
       </c>
       <c r="N3">
-        <v>0.9282298830082804</v>
+        <v>0.8354771699161131</v>
       </c>
       <c r="O3">
-        <v>0.7848521014142147</v>
+        <v>1.000000000000246</v>
       </c>
       <c r="P3">
-        <v>0.8469722590962648</v>
+        <v>0.9397939806721677</v>
       </c>
       <c r="Q3">
-        <v>21.04638680025845</v>
+        <v>29.18500206515242</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786953</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S3">
-        <v>148.8124200026778</v>
+        <v>140.9086422845006</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,58 +6120,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.036210343459111</v>
       </c>
       <c r="C4">
-        <v>1.21221060356638</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.964823543547059</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.96512641466385</v>
       </c>
       <c r="F4">
-        <v>13.99740236567136</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.14082265174766</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.135173428419211</v>
+        <v>7.135173428419265</v>
       </c>
       <c r="I4">
-        <v>1.879505018721096</v>
+        <v>1.87950501872089</v>
       </c>
       <c r="J4">
-        <v>1.113751880246105</v>
+        <v>1.113751880274944</v>
       </c>
       <c r="K4">
-        <v>3.006397543768159</v>
+        <v>3.006397543745556</v>
       </c>
       <c r="L4">
-        <v>1.113751880233075</v>
+        <v>1.113751880233371</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543745531</v>
       </c>
       <c r="N4">
-        <v>0.9045277646409607</v>
+        <v>0.8342731432240587</v>
       </c>
       <c r="O4">
-        <v>0.7019303077933663</v>
+        <v>0.9999999999998923</v>
       </c>
       <c r="P4">
-        <v>0.8520668705855894</v>
+        <v>0.9187000811234594</v>
       </c>
       <c r="Q4">
-        <v>19.79019327968254</v>
+        <v>30.70548526244763</v>
       </c>
       <c r="R4">
-        <v>-97.63434507042335</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S4">
-        <v>152.8016426976381</v>
+        <v>141.3328683155829</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,58 +6179,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8848656145602846</v>
       </c>
       <c r="C5">
-        <v>1.109659918351936</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8690420588171912</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10.21754801526048</v>
       </c>
       <c r="F5">
-        <v>12.81324905138857</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.03483333190424</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>11.88996667800023</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I5">
-        <v>2.806851597694809</v>
+        <v>2.806851597694609</v>
       </c>
       <c r="J5">
-        <v>1.779351894005445</v>
+        <v>1.779351894034437</v>
       </c>
       <c r="K5">
-        <v>3.399730879266414</v>
+        <v>3.399730879243813</v>
       </c>
       <c r="L5">
-        <v>1.779351893992417</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M5">
-        <v>3.399730879243908</v>
+        <v>3.399730879243857</v>
       </c>
       <c r="N5">
-        <v>0.8889856082353579</v>
+        <v>0.8315702581286986</v>
       </c>
       <c r="O5">
-        <v>0.6550793552707754</v>
+        <v>0.9999999999998</v>
       </c>
       <c r="P5">
-        <v>0.8523614955384028</v>
+        <v>0.9091343131749756</v>
       </c>
       <c r="Q5">
-        <v>18.94338221820284</v>
+        <v>31.33833484413732</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652829</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S5">
-        <v>154.8099639872519</v>
+        <v>141.3743755610145</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6238,58 +6238,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8848656145602842</v>
       </c>
       <c r="C6">
-        <v>1.109659918351936</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8690420588171913</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10.21754801526047</v>
       </c>
       <c r="F6">
-        <v>12.81324905138857</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.03483333190424</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.88996667800024</v>
+        <v>11.88996667800033</v>
       </c>
       <c r="I6">
-        <v>2.806851597694816</v>
+        <v>2.806851597694606</v>
       </c>
       <c r="J6">
-        <v>1.779351894005444</v>
+        <v>1.779351894034438</v>
       </c>
       <c r="K6">
-        <v>3.399730879266414</v>
+        <v>3.399730879243815</v>
       </c>
       <c r="L6">
-        <v>1.779351893992414</v>
+        <v>1.779351893992862</v>
       </c>
       <c r="M6">
-        <v>3.39973087924391</v>
+        <v>3.399730879243859</v>
       </c>
       <c r="N6">
-        <v>0.8889856082353579</v>
+        <v>0.8315702581286986</v>
       </c>
       <c r="O6">
-        <v>0.6550793552707754</v>
+        <v>0.9999999999997999</v>
       </c>
       <c r="P6">
-        <v>0.8523614955384026</v>
+        <v>0.9091343131749756</v>
       </c>
       <c r="Q6">
-        <v>18.94338221820284</v>
+        <v>31.33833484413731</v>
       </c>
       <c r="R6">
-        <v>-96.0932934565283</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S6">
-        <v>154.8099639872519</v>
+        <v>141.3743755610145</v>
       </c>
     </row>
   </sheetData>
@@ -6369,58 +6369,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526413</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.248639108736849</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
-        <v>333.3333522405614</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.3333522539259</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419442</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453496989</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186058</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104238</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740156</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.6350853098507081</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685334</v>
+        <v>-4.877431776118259E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6428,58 +6428,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486645168178444</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.505981655641896</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.605398585611783</v>
       </c>
       <c r="E3">
-        <v>86.44833206350071</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>86.67161058834482</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>87.81957841394726</v>
       </c>
       <c r="H3">
-        <v>2.132971010565857E-06</v>
+        <v>2.13297100655702E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015321</v>
+        <v>0.4683053737017247</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178419</v>
+        <v>0.1077319054064016</v>
       </c>
       <c r="K3">
-        <v>2.308438694642955</v>
+        <v>2.308438694631239</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132432</v>
+        <v>0.1077319054131826</v>
       </c>
       <c r="M3">
-        <v>2.308438694642837</v>
+        <v>2.308438694642893</v>
       </c>
       <c r="N3">
-        <v>0.5605924249019383</v>
+        <v>0.2748032888721914</v>
       </c>
       <c r="O3">
-        <v>1.100000023849217</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5532644226333374</v>
+        <v>0.2748032888886502</v>
       </c>
       <c r="Q3">
-        <v>81.01279302457171</v>
+        <v>1.901269826158502</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>99.10724870474976</v>
+        <v>-178.0987301749898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6487,58 +6487,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149820960866112</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.029680722715546</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.964875042908851</v>
       </c>
       <c r="E4">
-        <v>47.91800497689603</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>58.07775038395384</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.23542808274057</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>3.716460666901347</v>
       </c>
       <c r="I4">
-        <v>1.922938855559141</v>
+        <v>1.922938855559326</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319163570956</v>
       </c>
       <c r="K4">
-        <v>2.898438697960041</v>
+        <v>2.898438697948319</v>
       </c>
       <c r="L4">
-        <v>0.627731916364042</v>
+        <v>0.6277319163638727</v>
       </c>
       <c r="M4">
-        <v>2.898438697959969</v>
+        <v>2.898438697960022</v>
       </c>
       <c r="N4">
-        <v>0.5032022935223107</v>
+        <v>0.7585622007332208</v>
       </c>
       <c r="O4">
-        <v>1.100000023851071</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8536436911147183</v>
+        <v>0.7585622007379993</v>
       </c>
       <c r="Q4">
-        <v>41.56601328844689</v>
+        <v>-12.56153100582878</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>116.1703166090955</v>
+        <v>167.4384689941965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6546,58 +6546,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.050317367585603</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.055887790844918</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.620563445776253</v>
       </c>
       <c r="E5">
-        <v>35.22203106578677</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>46.8333581569446</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.25966021694827</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>6.193141972850114</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>2.890812310053079</v>
       </c>
       <c r="J5">
-        <v>0.9743985901651999</v>
+        <v>0.9743985902535803</v>
       </c>
       <c r="K5">
-        <v>3.291772033564907</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606025</v>
+        <v>0.974398590260356</v>
       </c>
       <c r="M5">
-        <v>3.291772033564867</v>
+        <v>3.291772033564919</v>
       </c>
       <c r="N5">
-        <v>0.5815372866335913</v>
+        <v>0.8062769315687365</v>
       </c>
       <c r="O5">
-        <v>1.100000023849339</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9000545224601511</v>
+        <v>0.8062769315723296</v>
       </c>
       <c r="Q5">
-        <v>35.23345800438612</v>
+        <v>-9.158832618363597</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>121.8536036145803</v>
+        <v>170.8411673816617</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6605,58 +6605,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.050317367585604</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4.055887790844917</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.620563445776254</v>
       </c>
       <c r="E6">
-        <v>35.22203106578679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>46.83335815694459</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.25966021694827</v>
       </c>
       <c r="H6">
-        <v>6.193141972850157</v>
+        <v>6.193141972850111</v>
       </c>
       <c r="I6">
-        <v>2.890812310052895</v>
+        <v>2.89081231005308</v>
       </c>
       <c r="J6">
-        <v>0.9743985901651996</v>
+        <v>0.9743985902535794</v>
       </c>
       <c r="K6">
-        <v>3.291772033564906</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606014</v>
+        <v>0.9743985902603558</v>
       </c>
       <c r="M6">
-        <v>3.291772033564867</v>
+        <v>3.291772033564917</v>
       </c>
       <c r="N6">
-        <v>0.5815372866335909</v>
+        <v>0.8062769315687361</v>
       </c>
       <c r="O6">
-        <v>1.100000023849339</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9000545224601514</v>
+        <v>0.8062769315723293</v>
       </c>
       <c r="Q6">
-        <v>35.2334580043861</v>
+        <v>-9.158832618363595</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>121.8536036145802</v>
+        <v>170.8411673816617</v>
       </c>
     </row>
   </sheetData>
@@ -6736,58 +6736,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526413</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.248639108736849</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
-        <v>333.3333522405614</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.3333522539259</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419442</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453496989</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186058</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104238</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740156</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.6350853098507081</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685334</v>
+        <v>-4.877431776118259E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6795,58 +6795,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.486645168178444</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.505981655641896</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.605398585611783</v>
       </c>
       <c r="E3">
-        <v>86.44833206350071</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>86.67161058834482</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>87.81957841394726</v>
       </c>
       <c r="H3">
-        <v>2.132971010565857E-06</v>
+        <v>2.13297100655702E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015321</v>
+        <v>0.4683053737017247</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178419</v>
+        <v>0.1077319054064016</v>
       </c>
       <c r="K3">
-        <v>2.308438694642955</v>
+        <v>2.308438694631239</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132432</v>
+        <v>0.1077319054131826</v>
       </c>
       <c r="M3">
-        <v>2.308438694642837</v>
+        <v>2.308438694642893</v>
       </c>
       <c r="N3">
-        <v>0.5605924249019383</v>
+        <v>0.2748032888721914</v>
       </c>
       <c r="O3">
-        <v>1.100000023849217</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5532644226333374</v>
+        <v>0.2748032888886502</v>
       </c>
       <c r="Q3">
-        <v>81.01279302457171</v>
+        <v>1.901269826158502</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>99.10724870474976</v>
+        <v>-178.0987301749898</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6854,58 +6854,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.149820960866112</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.029680722715546</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.964875042908851</v>
       </c>
       <c r="E4">
-        <v>47.91800497689603</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>58.07775038395384</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.23542808274057</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>3.716460666901347</v>
       </c>
       <c r="I4">
-        <v>1.922938855559141</v>
+        <v>1.922938855559326</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319163570956</v>
       </c>
       <c r="K4">
-        <v>2.898438697960041</v>
+        <v>2.898438697948319</v>
       </c>
       <c r="L4">
-        <v>0.627731916364042</v>
+        <v>0.6277319163638727</v>
       </c>
       <c r="M4">
-        <v>2.898438697959969</v>
+        <v>2.898438697960022</v>
       </c>
       <c r="N4">
-        <v>0.5032022935223107</v>
+        <v>0.7585622007332208</v>
       </c>
       <c r="O4">
-        <v>1.100000023851071</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8536436911147183</v>
+        <v>0.7585622007379993</v>
       </c>
       <c r="Q4">
-        <v>41.56601328844689</v>
+        <v>-12.56153100582878</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>116.1703166090955</v>
+        <v>167.4384689941965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6913,58 +6913,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.050317367585603</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.055887790844918</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.620563445776253</v>
       </c>
       <c r="E5">
-        <v>35.22203106578677</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>46.8333581569446</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.25966021694827</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>6.193141972850114</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>2.890812310053079</v>
       </c>
       <c r="J5">
-        <v>0.9743985901651999</v>
+        <v>0.9743985902535803</v>
       </c>
       <c r="K5">
-        <v>3.291772033564907</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606025</v>
+        <v>0.974398590260356</v>
       </c>
       <c r="M5">
-        <v>3.291772033564867</v>
+        <v>3.291772033564919</v>
       </c>
       <c r="N5">
-        <v>0.5815372866335913</v>
+        <v>0.8062769315687365</v>
       </c>
       <c r="O5">
-        <v>1.100000023849339</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9000545224601511</v>
+        <v>0.8062769315723296</v>
       </c>
       <c r="Q5">
-        <v>35.23345800438612</v>
+        <v>-9.158832618363597</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>121.8536036145803</v>
+        <v>170.8411673816617</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6972,58 +6972,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.050317367585604</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4.055887790844917</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.620563445776254</v>
       </c>
       <c r="E6">
-        <v>35.22203106578679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>46.83335815694459</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.25966021694827</v>
       </c>
       <c r="H6">
-        <v>6.193141972850157</v>
+        <v>6.193141972850111</v>
       </c>
       <c r="I6">
-        <v>2.890812310052895</v>
+        <v>2.89081231005308</v>
       </c>
       <c r="J6">
-        <v>0.9743985901651996</v>
+        <v>0.9743985902535794</v>
       </c>
       <c r="K6">
-        <v>3.291772033564906</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606014</v>
+        <v>0.9743985902603558</v>
       </c>
       <c r="M6">
-        <v>3.291772033564867</v>
+        <v>3.291772033564917</v>
       </c>
       <c r="N6">
-        <v>0.5815372866335909</v>
+        <v>0.8062769315687361</v>
       </c>
       <c r="O6">
-        <v>1.100000023849339</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9000545224601514</v>
+        <v>0.8062769315723293</v>
       </c>
       <c r="Q6">
-        <v>35.2334580043861</v>
+        <v>-9.158832618363595</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>121.8536036145802</v>
+        <v>170.8411673816617</v>
       </c>
     </row>
   </sheetData>
@@ -7103,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593721</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888675</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419442</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453496989</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186058</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104238</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278028</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898905</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966811</v>
+        <v>0.6918398877011797</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>8.957471693504784</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7162,58 +7162,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512244848903233</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.526666615553254</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.416706836785395</v>
       </c>
       <c r="E3">
-        <v>17.46189941189813</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.62842762904972</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.35872147161662</v>
       </c>
       <c r="H3">
-        <v>2.132971010565857E-06</v>
+        <v>2.13297100655702E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015321</v>
+        <v>0.4683053737017247</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178419</v>
+        <v>0.1077319054064016</v>
       </c>
       <c r="K3">
-        <v>2.308438694642955</v>
+        <v>2.308438694631239</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132432</v>
+        <v>0.1077319054131826</v>
       </c>
       <c r="M3">
-        <v>2.308438694642837</v>
+        <v>2.308438694642893</v>
       </c>
       <c r="N3">
-        <v>0.9258965107568061</v>
+        <v>1.024998895708736</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>0.8723446855809893</v>
       </c>
       <c r="P3">
-        <v>1.036762419153047</v>
+        <v>0.9376302810217509</v>
       </c>
       <c r="Q3">
-        <v>29.15655502162155</v>
+        <v>21.37651986108362</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163396028</v>
       </c>
       <c r="S3">
-        <v>141.2520184563645</v>
+        <v>148.8263147219714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7221,58 +7221,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.25966968104685</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.383090658670758</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.175859552050429</v>
       </c>
       <c r="E4">
-        <v>14.54541258884818</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.97055528194438</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.57765657811016</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>3.716460666901347</v>
       </c>
       <c r="I4">
-        <v>1.922938855559141</v>
+        <v>1.922938855559326</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319163570956</v>
       </c>
       <c r="K4">
-        <v>2.898438697960041</v>
+        <v>2.898438697948319</v>
       </c>
       <c r="L4">
-        <v>0.627731916364042</v>
+        <v>0.6277319163638727</v>
       </c>
       <c r="M4">
-        <v>2.898438697959969</v>
+        <v>2.898438697960022</v>
       </c>
       <c r="N4">
-        <v>0.9132419036264661</v>
+        <v>1.006515015002835</v>
       </c>
       <c r="O4">
-        <v>1.100000023844969</v>
+        <v>0.8020156209380074</v>
       </c>
       <c r="P4">
-        <v>1.016780042240087</v>
+        <v>0.9270360094836517</v>
       </c>
       <c r="Q4">
-        <v>30.18467731504754</v>
+        <v>20.0477067217329</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390014049</v>
       </c>
       <c r="S4">
-        <v>140.9309510165867</v>
+        <v>151.2487257508933</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7280,58 +7280,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.131286872924681</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.298330997832553</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.075138985077874</v>
       </c>
       <c r="E5">
-        <v>13.06297561227509</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.9918350219172</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.41463564901943</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>6.193141972850114</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>2.890812310053079</v>
       </c>
       <c r="J5">
-        <v>0.9743985901651999</v>
+        <v>0.9743985902535803</v>
       </c>
       <c r="K5">
-        <v>3.291772033564907</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606025</v>
+        <v>0.974398590260356</v>
       </c>
       <c r="M5">
-        <v>3.291772033564867</v>
+        <v>3.291772033564919</v>
       </c>
       <c r="N5">
-        <v>0.9061601430336053</v>
+        <v>0.9954818448650828</v>
       </c>
       <c r="O5">
-        <v>1.100000023844711</v>
+        <v>0.7610792363894661</v>
       </c>
       <c r="P5">
-        <v>1.007203956173985</v>
+        <v>0.9212706670340197</v>
       </c>
       <c r="Q5">
-        <v>30.6623176874836</v>
+        <v>19.20716037741579</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568572217</v>
       </c>
       <c r="S5">
-        <v>140.7047633326422</v>
+        <v>152.6164013912024</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7339,58 +7339,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.131286872924681</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.298330997832553</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.075138985077874</v>
       </c>
       <c r="E6">
-        <v>13.0629756122751</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.9918350219172</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.41463564901943</v>
       </c>
       <c r="H6">
-        <v>6.193141972850157</v>
+        <v>6.193141972850111</v>
       </c>
       <c r="I6">
-        <v>2.890812310052895</v>
+        <v>2.89081231005308</v>
       </c>
       <c r="J6">
-        <v>0.9743985901651996</v>
+        <v>0.9743985902535794</v>
       </c>
       <c r="K6">
-        <v>3.291772033564906</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606014</v>
+        <v>0.9743985902603558</v>
       </c>
       <c r="M6">
-        <v>3.291772033564867</v>
+        <v>3.291772033564917</v>
       </c>
       <c r="N6">
-        <v>0.9061601430336053</v>
+        <v>0.9954818448650827</v>
       </c>
       <c r="O6">
-        <v>1.100000023844711</v>
+        <v>0.7610792363894662</v>
       </c>
       <c r="P6">
-        <v>1.007203956173985</v>
+        <v>0.9212706670340196</v>
       </c>
       <c r="Q6">
-        <v>30.66231768748359</v>
+        <v>19.2071603774158</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568572217</v>
       </c>
       <c r="S6">
-        <v>140.7047633326422</v>
+        <v>152.6164013912024</v>
       </c>
     </row>
   </sheetData>
@@ -7470,58 +7470,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593721</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888675</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419442</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453496989</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186058</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104238</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278028</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898905</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966811</v>
+        <v>0.6918398877011797</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>8.957471693504784</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7529,58 +7529,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.512244848903233</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.526666615553254</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.416706836785395</v>
       </c>
       <c r="E3">
-        <v>17.46189941189813</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.62842762904972</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.35872147161662</v>
       </c>
       <c r="H3">
-        <v>2.132971010565857E-06</v>
+        <v>2.13297100655702E-06</v>
       </c>
       <c r="I3">
-        <v>0.4683053737015321</v>
+        <v>0.4683053737017247</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178419</v>
+        <v>0.1077319054064016</v>
       </c>
       <c r="K3">
-        <v>2.308438694642955</v>
+        <v>2.308438694631239</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132432</v>
+        <v>0.1077319054131826</v>
       </c>
       <c r="M3">
-        <v>2.308438694642837</v>
+        <v>2.308438694642893</v>
       </c>
       <c r="N3">
-        <v>0.9258965107568061</v>
+        <v>1.024998895708736</v>
       </c>
       <c r="O3">
-        <v>1.100000023845418</v>
+        <v>0.8723446855809893</v>
       </c>
       <c r="P3">
-        <v>1.036762419153047</v>
+        <v>0.9376302810217509</v>
       </c>
       <c r="Q3">
-        <v>29.15655502162155</v>
+        <v>21.37651986108362</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163396028</v>
       </c>
       <c r="S3">
-        <v>141.2520184563645</v>
+        <v>148.8263147219714</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7588,58 +7588,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.25966968104685</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.383090658670758</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.175859552050429</v>
       </c>
       <c r="E4">
-        <v>14.54541258884818</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.97055528194438</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.57765657811016</v>
       </c>
       <c r="H4">
-        <v>3.716460666901372</v>
+        <v>3.716460666901347</v>
       </c>
       <c r="I4">
-        <v>1.922938855559141</v>
+        <v>1.922938855559326</v>
       </c>
       <c r="J4">
-        <v>0.6277319162686393</v>
+        <v>0.6277319163570956</v>
       </c>
       <c r="K4">
-        <v>2.898438697960041</v>
+        <v>2.898438697948319</v>
       </c>
       <c r="L4">
-        <v>0.627731916364042</v>
+        <v>0.6277319163638727</v>
       </c>
       <c r="M4">
-        <v>2.898438697959969</v>
+        <v>2.898438697960022</v>
       </c>
       <c r="N4">
-        <v>0.9132419036264661</v>
+        <v>1.006515015002835</v>
       </c>
       <c r="O4">
-        <v>1.100000023844969</v>
+        <v>0.8020156209380074</v>
       </c>
       <c r="P4">
-        <v>1.016780042240087</v>
+        <v>0.9270360094836517</v>
       </c>
       <c r="Q4">
-        <v>30.18467731504754</v>
+        <v>20.0477067217329</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390014049</v>
       </c>
       <c r="S4">
-        <v>140.9309510165867</v>
+        <v>151.2487257508933</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7647,58 +7647,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.131286872924681</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.298330997832553</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.075138985077874</v>
       </c>
       <c r="E5">
-        <v>13.06297561227509</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.9918350219172</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.41463564901943</v>
       </c>
       <c r="H5">
-        <v>6.193141972850158</v>
+        <v>6.193141972850114</v>
       </c>
       <c r="I5">
-        <v>2.890812310052897</v>
+        <v>2.890812310053079</v>
       </c>
       <c r="J5">
-        <v>0.9743985901651999</v>
+        <v>0.9743985902535803</v>
       </c>
       <c r="K5">
-        <v>3.291772033564907</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L5">
-        <v>0.9743985902606025</v>
+        <v>0.974398590260356</v>
       </c>
       <c r="M5">
-        <v>3.291772033564867</v>
+        <v>3.291772033564919</v>
       </c>
       <c r="N5">
-        <v>0.9061601430336053</v>
+        <v>0.9954818448650828</v>
       </c>
       <c r="O5">
-        <v>1.100000023844711</v>
+        <v>0.7610792363894661</v>
       </c>
       <c r="P5">
-        <v>1.007203956173985</v>
+        <v>0.9212706670340197</v>
       </c>
       <c r="Q5">
-        <v>30.6623176874836</v>
+        <v>19.20716037741579</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568572217</v>
       </c>
       <c r="S5">
-        <v>140.7047633326422</v>
+        <v>152.6164013912024</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7706,58 +7706,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.131286872924681</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.298330997832553</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.075138985077874</v>
       </c>
       <c r="E6">
-        <v>13.0629756122751</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.9918350219172</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.41463564901943</v>
       </c>
       <c r="H6">
-        <v>6.193141972850157</v>
+        <v>6.193141972850111</v>
       </c>
       <c r="I6">
-        <v>2.890812310052895</v>
+        <v>2.89081231005308</v>
       </c>
       <c r="J6">
-        <v>0.9743985901651996</v>
+        <v>0.9743985902535794</v>
       </c>
       <c r="K6">
-        <v>3.291772033564906</v>
+        <v>3.291772033553181</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606014</v>
+        <v>0.9743985902603558</v>
       </c>
       <c r="M6">
-        <v>3.291772033564867</v>
+        <v>3.291772033564917</v>
       </c>
       <c r="N6">
-        <v>0.9061601430336053</v>
+        <v>0.9954818448650827</v>
       </c>
       <c r="O6">
-        <v>1.100000023844711</v>
+        <v>0.7610792363894662</v>
       </c>
       <c r="P6">
-        <v>1.007203956173985</v>
+        <v>0.9212706670340196</v>
       </c>
       <c r="Q6">
-        <v>30.66231768748359</v>
+        <v>19.2071603774158</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999632</v>
+        <v>-99.22644568572217</v>
       </c>
       <c r="S6">
-        <v>140.7047633326422</v>
+        <v>152.6164013912024</v>
       </c>
     </row>
   </sheetData>
@@ -7837,58 +7837,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.19891119579262</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412807</v>
       </c>
       <c r="E2">
-        <v>266.6666760113623</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872409</v>
       </c>
       <c r="H2">
-        <v>1.504993724976287</v>
+        <v>1.504993724976224</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648797</v>
+        <v>1.504993721246248</v>
       </c>
       <c r="K2">
-        <v>15.0499369722939</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691952338</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962952</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541784</v>
+        <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647618</v>
+        <v>-5.812917395695511E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955745</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7896,58 +7896,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.513675746684334</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.541069236575427</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.628303148591585</v>
       </c>
       <c r="E3">
-        <v>75.21344891524274</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>75.52976169049606</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.53705214219592</v>
       </c>
       <c r="H3">
-        <v>4.308979423411365E-06</v>
+        <v>4.30897941845114E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145665</v>
+        <v>0.4803962243147688</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127202</v>
+        <v>0.115351859484112</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.41639754069842</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711489</v>
+        <v>0.1153518594710816</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.41639754067575</v>
       </c>
       <c r="N3">
-        <v>0.5094238347718282</v>
+        <v>0.2462359706961716</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5027193988243107</v>
+        <v>0.2462359706898987</v>
       </c>
       <c r="Q3">
-        <v>81.17491668662113</v>
+        <v>1.955875720579085</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999578</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>98.94373642299013</v>
+        <v>-178.0441242809309</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7955,58 +7955,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.82891633278569</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.925616777675339</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.484202367606449</v>
       </c>
       <c r="E4">
-        <v>32.66551212497494</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>45.32911806652336</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>28.68509811318178</v>
       </c>
       <c r="H4">
-        <v>7.135173428419265</v>
+        <v>7.135173428419211</v>
       </c>
       <c r="I4">
-        <v>1.87950501872089</v>
+        <v>1.879505018721096</v>
       </c>
       <c r="J4">
-        <v>1.113751880274944</v>
+        <v>1.113751880246105</v>
       </c>
       <c r="K4">
-        <v>3.006397543745556</v>
+        <v>3.006397543768159</v>
       </c>
       <c r="L4">
-        <v>1.113751880233371</v>
+        <v>1.113751880233075</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745587</v>
       </c>
       <c r="N4">
-        <v>0.5465415455385793</v>
+        <v>0.76044630632282</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994561</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8636625940136907</v>
+        <v>0.7604463063235444</v>
       </c>
       <c r="Q4">
-        <v>30.37919592902007</v>
+        <v>-8.980984779835504</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>123.0882889740625</v>
+        <v>171.0190152197314</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8014,58 +8014,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.904207346003257</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.077249408701101</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.220454844409832</v>
       </c>
       <c r="E5">
-        <v>21.98789247615687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35.53301548954395</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25.63960404286851</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>11.88996667800023</v>
       </c>
       <c r="I5">
-        <v>2.806851597694609</v>
+        <v>2.806851597694809</v>
       </c>
       <c r="J5">
-        <v>1.779351894034437</v>
+        <v>1.779351894005445</v>
       </c>
       <c r="K5">
-        <v>3.399730879243813</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L5">
-        <v>1.779351893992862</v>
+        <v>1.779351893992417</v>
       </c>
       <c r="M5">
-        <v>3.399730879243857</v>
+        <v>3.399730879243908</v>
       </c>
       <c r="N5">
-        <v>0.634678641136055</v>
+        <v>0.7807569542035455</v>
       </c>
       <c r="O5">
-        <v>0.9999999999991909</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8795785593514656</v>
+        <v>0.7807569542043066</v>
       </c>
       <c r="Q5">
-        <v>29.7127042835145</v>
+        <v>-6.142526072165142</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999608</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>128.8070926851616</v>
+        <v>173.8574739273857</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8073,58 +8073,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.904207346003257</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.0772494087011</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.220454844409833</v>
       </c>
       <c r="E6">
-        <v>21.98789247615687</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>35.53301548954394</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.63960404286851</v>
       </c>
       <c r="H6">
-        <v>11.88996667800033</v>
+        <v>11.88996667800024</v>
       </c>
       <c r="I6">
-        <v>2.806851597694606</v>
+        <v>2.806851597694816</v>
       </c>
       <c r="J6">
-        <v>1.779351894034438</v>
+        <v>1.779351894005444</v>
       </c>
       <c r="K6">
-        <v>3.399730879243815</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L6">
-        <v>1.779351893992862</v>
+        <v>1.779351893992414</v>
       </c>
       <c r="M6">
-        <v>3.399730879243859</v>
+        <v>3.39973087924391</v>
       </c>
       <c r="N6">
-        <v>0.6346786411360548</v>
+        <v>0.7807569542035452</v>
       </c>
       <c r="O6">
-        <v>0.9999999999991909</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8795785593514657</v>
+        <v>0.7807569542043064</v>
       </c>
       <c r="Q6">
-        <v>29.7127042835145</v>
+        <v>-6.142526072165123</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999608</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>128.8070926851616</v>
+        <v>173.8574739273857</v>
       </c>
     </row>
   </sheetData>
@@ -8355,58 +8355,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.19891119579262</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412807</v>
       </c>
       <c r="E2">
-        <v>266.6666760113623</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872409</v>
       </c>
       <c r="H2">
-        <v>1.504993724976287</v>
+        <v>1.504993724976224</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648797</v>
+        <v>1.504993721246248</v>
       </c>
       <c r="K2">
-        <v>15.0499369722939</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691952338</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962952</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541784</v>
+        <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647618</v>
+        <v>-5.812917395695511E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955745</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8414,58 +8414,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.513675746684334</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.541069236575427</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.628303148591585</v>
       </c>
       <c r="E3">
-        <v>75.21344891524274</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>75.52976169049606</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.53705214219592</v>
       </c>
       <c r="H3">
-        <v>4.308979423411365E-06</v>
+        <v>4.30897941845114E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145665</v>
+        <v>0.4803962243147688</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127202</v>
+        <v>0.115351859484112</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.41639754069842</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711489</v>
+        <v>0.1153518594710816</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.41639754067575</v>
       </c>
       <c r="N3">
-        <v>0.5094238347718282</v>
+        <v>0.2462359706961716</v>
       </c>
       <c r="O3">
-        <v>1.000000000006984</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5027193988243107</v>
+        <v>0.2462359706898987</v>
       </c>
       <c r="Q3">
-        <v>81.17491668662113</v>
+        <v>1.955875720579085</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999578</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>98.94373642299013</v>
+        <v>-178.0441242809309</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8473,58 +8473,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.82891633278569</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.925616777675339</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.484202367606449</v>
       </c>
       <c r="E4">
-        <v>32.66551212497494</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>45.32911806652336</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>28.68509811318178</v>
       </c>
       <c r="H4">
-        <v>7.135173428419265</v>
+        <v>7.135173428419211</v>
       </c>
       <c r="I4">
-        <v>1.87950501872089</v>
+        <v>1.879505018721096</v>
       </c>
       <c r="J4">
-        <v>1.113751880274944</v>
+        <v>1.113751880246105</v>
       </c>
       <c r="K4">
-        <v>3.006397543745556</v>
+        <v>3.006397543768159</v>
       </c>
       <c r="L4">
-        <v>1.113751880233371</v>
+        <v>1.113751880233075</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745587</v>
       </c>
       <c r="N4">
-        <v>0.5465415455385793</v>
+        <v>0.76044630632282</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994561</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8636625940136907</v>
+        <v>0.7604463063235444</v>
       </c>
       <c r="Q4">
-        <v>30.37919592902007</v>
+        <v>-8.980984779835504</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>123.0882889740625</v>
+        <v>171.0190152197314</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8532,58 +8532,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.904207346003257</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.077249408701101</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.220454844409832</v>
       </c>
       <c r="E5">
-        <v>21.98789247615687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>35.53301548954395</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25.63960404286851</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>11.88996667800023</v>
       </c>
       <c r="I5">
-        <v>2.806851597694609</v>
+        <v>2.806851597694809</v>
       </c>
       <c r="J5">
-        <v>1.779351894034437</v>
+        <v>1.779351894005445</v>
       </c>
       <c r="K5">
-        <v>3.399730879243813</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L5">
-        <v>1.779351893992862</v>
+        <v>1.779351893992417</v>
       </c>
       <c r="M5">
-        <v>3.399730879243857</v>
+        <v>3.399730879243908</v>
       </c>
       <c r="N5">
-        <v>0.634678641136055</v>
+        <v>0.7807569542035455</v>
       </c>
       <c r="O5">
-        <v>0.9999999999991909</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8795785593514656</v>
+        <v>0.7807569542043066</v>
       </c>
       <c r="Q5">
-        <v>29.7127042835145</v>
+        <v>-6.142526072165142</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999608</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>128.8070926851616</v>
+        <v>173.8574739273857</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8591,58 +8591,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.904207346003257</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.0772494087011</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.220454844409833</v>
       </c>
       <c r="E6">
-        <v>21.98789247615687</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>35.53301548954394</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.63960404286851</v>
       </c>
       <c r="H6">
-        <v>11.88996667800033</v>
+        <v>11.88996667800024</v>
       </c>
       <c r="I6">
-        <v>2.806851597694606</v>
+        <v>2.806851597694816</v>
       </c>
       <c r="J6">
-        <v>1.779351894034438</v>
+        <v>1.779351894005444</v>
       </c>
       <c r="K6">
-        <v>3.399730879243815</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L6">
-        <v>1.779351893992862</v>
+        <v>1.779351893992414</v>
       </c>
       <c r="M6">
-        <v>3.399730879243859</v>
+        <v>3.39973087924391</v>
       </c>
       <c r="N6">
-        <v>0.6346786411360548</v>
+        <v>0.7807569542035452</v>
       </c>
       <c r="O6">
-        <v>0.9999999999991909</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8795785593514657</v>
+        <v>0.7807569542043064</v>
       </c>
       <c r="Q6">
-        <v>29.7127042835145</v>
+        <v>-6.142526072165123</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999608</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>128.8070926851616</v>
+        <v>173.8574739273857</v>
       </c>
     </row>
   </sheetData>
@@ -8722,58 +8722,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756733</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876776</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976287</v>
+        <v>1.504993724976224</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648797</v>
+        <v>1.504993721246248</v>
       </c>
       <c r="K2">
-        <v>15.0499369722939</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.7472997527192562</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351807</v>
+        <v>0.6184267550384414</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119255</v>
+        <v>8.109158318802276</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767961</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8781,58 +8781,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364411597794575</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.377764722514245</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.274927760211</v>
       </c>
       <c r="E3">
-        <v>15.75486806544291</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.90905666847139</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.72159771110295</v>
       </c>
       <c r="H3">
-        <v>4.308979423411365E-06</v>
+        <v>4.30897941845114E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145665</v>
+        <v>0.4803962243147688</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127202</v>
+        <v>0.115351859484112</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.41639754069842</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711489</v>
+        <v>0.1153518594710816</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.41639754067575</v>
       </c>
       <c r="N3">
-        <v>0.8354771699161131</v>
+        <v>0.9282298830082804</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.7848521014142147</v>
       </c>
       <c r="P3">
-        <v>0.9397939806721677</v>
+        <v>0.8469722590962648</v>
       </c>
       <c r="Q3">
-        <v>29.18500206515242</v>
+        <v>21.04638680025845</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-100.4045966786953</v>
       </c>
       <c r="S3">
-        <v>140.9086422845006</v>
+        <v>148.8124200026778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8840,58 +8840,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036210343459111</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.21221060356638</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.964823543547059</v>
       </c>
       <c r="E4">
-        <v>11.96512641466385</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.99740236567136</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.14082265174766</v>
       </c>
       <c r="H4">
-        <v>7.135173428419265</v>
+        <v>7.135173428419211</v>
       </c>
       <c r="I4">
-        <v>1.87950501872089</v>
+        <v>1.879505018721096</v>
       </c>
       <c r="J4">
-        <v>1.113751880274944</v>
+        <v>1.113751880246105</v>
       </c>
       <c r="K4">
-        <v>3.006397543745556</v>
+        <v>3.006397543768159</v>
       </c>
       <c r="L4">
-        <v>1.113751880233371</v>
+        <v>1.113751880233075</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745587</v>
       </c>
       <c r="N4">
-        <v>0.8342731432240587</v>
+        <v>0.9045277646409607</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998923</v>
+        <v>0.7019303077933663</v>
       </c>
       <c r="P4">
-        <v>0.9187000811234594</v>
+        <v>0.8520668705855894</v>
       </c>
       <c r="Q4">
-        <v>30.70548526244763</v>
+        <v>19.79019327968254</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>-97.63434507042335</v>
       </c>
       <c r="S4">
-        <v>141.3328683155829</v>
+        <v>152.8016426976381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8899,58 +8899,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8848656145602846</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.109659918351936</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8690420588171912</v>
       </c>
       <c r="E5">
-        <v>10.21754801526048</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.81324905138857</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.03483333190424</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>11.88996667800023</v>
       </c>
       <c r="I5">
-        <v>2.806851597694609</v>
+        <v>2.806851597694809</v>
       </c>
       <c r="J5">
-        <v>1.779351894034437</v>
+        <v>1.779351894005445</v>
       </c>
       <c r="K5">
-        <v>3.399730879243813</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L5">
-        <v>1.779351893992862</v>
+        <v>1.779351893992417</v>
       </c>
       <c r="M5">
-        <v>3.399730879243857</v>
+        <v>3.399730879243908</v>
       </c>
       <c r="N5">
-        <v>0.8315702581286986</v>
+        <v>0.8889856082353579</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998</v>
+        <v>0.6550793552707754</v>
       </c>
       <c r="P5">
-        <v>0.9091343131749756</v>
+        <v>0.8523614955384028</v>
       </c>
       <c r="Q5">
-        <v>31.33833484413732</v>
+        <v>18.94338221820284</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-96.09329345652829</v>
       </c>
       <c r="S5">
-        <v>141.3743755610145</v>
+        <v>154.8099639872519</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8958,58 +8958,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8848656145602842</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.109659918351936</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.8690420588171913</v>
       </c>
       <c r="E6">
-        <v>10.21754801526047</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.81324905138857</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.03483333190424</v>
       </c>
       <c r="H6">
-        <v>11.88996667800033</v>
+        <v>11.88996667800024</v>
       </c>
       <c r="I6">
-        <v>2.806851597694606</v>
+        <v>2.806851597694816</v>
       </c>
       <c r="J6">
-        <v>1.779351894034438</v>
+        <v>1.779351894005444</v>
       </c>
       <c r="K6">
-        <v>3.399730879243815</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L6">
-        <v>1.779351893992862</v>
+        <v>1.779351893992414</v>
       </c>
       <c r="M6">
-        <v>3.399730879243859</v>
+        <v>3.39973087924391</v>
       </c>
       <c r="N6">
-        <v>0.8315702581286986</v>
+        <v>0.8889856082353579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999997999</v>
+        <v>0.6550793552707754</v>
       </c>
       <c r="P6">
-        <v>0.9091343131749756</v>
+        <v>0.8523614955384026</v>
       </c>
       <c r="Q6">
-        <v>31.33833484413731</v>
+        <v>18.94338221820284</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999622</v>
+        <v>-96.0932934565283</v>
       </c>
       <c r="S6">
-        <v>141.3743755610145</v>
+        <v>154.8099639872519</v>
       </c>
     </row>
   </sheetData>
@@ -9089,58 +9089,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756733</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876776</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976287</v>
+        <v>1.504993724976224</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648797</v>
+        <v>1.504993721246248</v>
       </c>
       <c r="K2">
-        <v>15.0499369722939</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695428</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.7472997527192562</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351807</v>
+        <v>0.6184267550384414</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119255</v>
+        <v>8.109158318802276</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767961</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9148,58 +9148,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.364411597794575</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.377764722514245</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.274927760211</v>
       </c>
       <c r="E3">
-        <v>15.75486806544291</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.90905666847139</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.72159771110295</v>
       </c>
       <c r="H3">
-        <v>4.308979423411365E-06</v>
+        <v>4.30897941845114E-06</v>
       </c>
       <c r="I3">
-        <v>0.4803962243145665</v>
+        <v>0.4803962243147688</v>
       </c>
       <c r="J3">
-        <v>0.1153518595127202</v>
+        <v>0.115351859484112</v>
       </c>
       <c r="K3">
-        <v>2.416397540675818</v>
+        <v>2.41639754069842</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711489</v>
+        <v>0.1153518594710816</v>
       </c>
       <c r="M3">
-        <v>2.416397540675693</v>
+        <v>2.41639754067575</v>
       </c>
       <c r="N3">
-        <v>0.8354771699161131</v>
+        <v>0.9282298830082804</v>
       </c>
       <c r="O3">
-        <v>1.000000000000246</v>
+        <v>0.7848521014142147</v>
       </c>
       <c r="P3">
-        <v>0.9397939806721677</v>
+        <v>0.8469722590962648</v>
       </c>
       <c r="Q3">
-        <v>29.18500206515242</v>
+        <v>21.04638680025845</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999642</v>
+        <v>-100.4045966786953</v>
       </c>
       <c r="S3">
-        <v>140.9086422845006</v>
+        <v>148.8124200026778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9207,58 +9207,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.036210343459111</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.21221060356638</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.964823543547059</v>
       </c>
       <c r="E4">
-        <v>11.96512641466385</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.99740236567136</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.14082265174766</v>
       </c>
       <c r="H4">
-        <v>7.135173428419265</v>
+        <v>7.135173428419211</v>
       </c>
       <c r="I4">
-        <v>1.87950501872089</v>
+        <v>1.879505018721096</v>
       </c>
       <c r="J4">
-        <v>1.113751880274944</v>
+        <v>1.113751880246105</v>
       </c>
       <c r="K4">
-        <v>3.006397543745556</v>
+        <v>3.006397543768159</v>
       </c>
       <c r="L4">
-        <v>1.113751880233371</v>
+        <v>1.113751880233075</v>
       </c>
       <c r="M4">
-        <v>3.006397543745531</v>
+        <v>3.006397543745587</v>
       </c>
       <c r="N4">
-        <v>0.8342731432240587</v>
+        <v>0.9045277646409607</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998923</v>
+        <v>0.7019303077933663</v>
       </c>
       <c r="P4">
-        <v>0.9187000811234594</v>
+        <v>0.8520668705855894</v>
       </c>
       <c r="Q4">
-        <v>30.70548526244763</v>
+        <v>19.79019327968254</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999629</v>
+        <v>-97.63434507042335</v>
       </c>
       <c r="S4">
-        <v>141.3328683155829</v>
+        <v>152.8016426976381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9266,58 +9266,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8848656145602846</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.109659918351936</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8690420588171912</v>
       </c>
       <c r="E5">
-        <v>10.21754801526048</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.81324905138857</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.03483333190424</v>
       </c>
       <c r="H5">
-        <v>11.88996667800033</v>
+        <v>11.88996667800023</v>
       </c>
       <c r="I5">
-        <v>2.806851597694609</v>
+        <v>2.806851597694809</v>
       </c>
       <c r="J5">
-        <v>1.779351894034437</v>
+        <v>1.779351894005445</v>
       </c>
       <c r="K5">
-        <v>3.399730879243813</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L5">
-        <v>1.779351893992862</v>
+        <v>1.779351893992417</v>
       </c>
       <c r="M5">
-        <v>3.399730879243857</v>
+        <v>3.399730879243908</v>
       </c>
       <c r="N5">
-        <v>0.8315702581286986</v>
+        <v>0.8889856082353579</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998</v>
+        <v>0.6550793552707754</v>
       </c>
       <c r="P5">
-        <v>0.9091343131749756</v>
+        <v>0.8523614955384028</v>
       </c>
       <c r="Q5">
-        <v>31.33833484413732</v>
+        <v>18.94338221820284</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999621</v>
+        <v>-96.09329345652829</v>
       </c>
       <c r="S5">
-        <v>141.3743755610145</v>
+        <v>154.8099639872519</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9325,58 +9325,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8848656145602842</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.109659918351936</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.8690420588171913</v>
       </c>
       <c r="E6">
-        <v>10.21754801526047</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.81324905138857</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.03483333190424</v>
       </c>
       <c r="H6">
-        <v>11.88996667800033</v>
+        <v>11.88996667800024</v>
       </c>
       <c r="I6">
-        <v>2.806851597694606</v>
+        <v>2.806851597694816</v>
       </c>
       <c r="J6">
-        <v>1.779351894034438</v>
+        <v>1.779351894005444</v>
       </c>
       <c r="K6">
-        <v>3.399730879243815</v>
+        <v>3.399730879266414</v>
       </c>
       <c r="L6">
-        <v>1.779351893992862</v>
+        <v>1.779351893992414</v>
       </c>
       <c r="M6">
-        <v>3.399730879243859</v>
+        <v>3.39973087924391</v>
       </c>
       <c r="N6">
-        <v>0.8315702581286986</v>
+        <v>0.8889856082353579</v>
       </c>
       <c r="O6">
-        <v>0.9999999999997999</v>
+        <v>0.6550793552707754</v>
       </c>
       <c r="P6">
-        <v>0.9091343131749756</v>
+        <v>0.8523614955384026</v>
       </c>
       <c r="Q6">
-        <v>31.33833484413731</v>
+        <v>18.94338221820284</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999622</v>
+        <v>-96.0932934565283</v>
       </c>
       <c r="S6">
-        <v>141.3743755610145</v>
+        <v>154.8099639872519</v>
       </c>
     </row>
   </sheetData>
